--- a/public/files/bulk-upload-lettings-template-2023-24.xlsx
+++ b/public/files/bulk-upload-lettings-template-2023-24.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="296">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -465,7 +465,7 @@
     <t>General needs housing includes both self-contained and shared housing without support or specific adaptations. Supported housing includes direct access hostels, group homes, residential care and nursing homes.</t>
   </si>
   <si>
-    <t>This is a letting to the same tenant in the same property</t>
+    <t>A renewal is a letting to the same tenant in the same property. If the property was previously being used as temporary accommodation, then answer 'no'.</t>
   </si>
   <si>
     <t>This is how you usually refer to this tenancy on your own systems</t>
@@ -743,10 +743,13 @@
     <t>Yes, if letting is general needs (if field 4 = 1) or if management code is provided (if field 15 is not empty)</t>
   </si>
   <si>
-    <t>Yes, if letting is supported housing (if field 4 = 2) or if the property's postcode is not empty (if fields 23 and 24 contain full and valid entries)</t>
-  </si>
-  <si>
-    <t>Yes, if letting is supported housing (if field 4 = 2) or if property's UPRN and local authority are known (if fields 18 and 25 are not empty)</t>
+    <t>Yes, if letting is supported housing (if field 4 = 2) or if the property's address is known (if fields 19, 21, 23 and 24 contain full and valid entries)</t>
+  </si>
+  <si>
+    <t>Yes, if letting is supported housing (if field 4 = 2) or if property's UPRN is known (if field 18 is not empty)</t>
+  </si>
+  <si>
+    <t>Yes, if letting is supported housing (if field 4 = 2) or if property's UPRN or local authority is known (if field 18 or 25 is not empty)</t>
   </si>
   <si>
     <t>Yes, if letting is supported housing (if field 4 = 2)</t>
@@ -1452,6 +1455,7 @@
   <cols>
     <col customWidth="1" min="5" max="5" width="16.63"/>
     <col customWidth="1" min="6" max="6" width="12.88"/>
+    <col customWidth="1" min="7" max="7" width="13.0"/>
     <col customWidth="1" min="13" max="13" width="13.88"/>
     <col customWidth="1" min="19" max="19" width="17.63"/>
     <col customWidth="1" min="33" max="33" width="13.13"/>
@@ -2602,27 +2606,27 @@
         <v>231</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA5" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB5" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="4"/>
@@ -2637,10 +2641,10 @@
       <c r="AO5" s="3"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AR5" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AS5" s="23" t="s">
         <v>236</v>
@@ -2656,116 +2660,116 @@
       <c r="AX5" s="3"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BA5" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BB5" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BC5" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BD5" s="23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BE5" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BF5" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BG5" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BH5" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BI5" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BJ5" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BK5" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BL5" s="23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM5" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BN5" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BO5" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BP5" s="23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BQ5" s="23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BR5" s="23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BS5" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BT5" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BU5" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BV5" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BW5" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BX5" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BY5" s="23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BZ5" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="CA5" s="23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="CB5" s="22" t="s">
         <v>230</v>
       </c>
       <c r="CC5" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="CD5" s="25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="CE5" s="22" t="s">
         <v>230</v>
       </c>
       <c r="CF5" s="22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="CG5" s="3"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="4"/>
       <c r="CJ5" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="CK5" s="4"/>
       <c r="CL5" s="23" t="s">
         <v>230</v>
       </c>
       <c r="CM5" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CN5" s="3"/>
       <c r="CO5" s="3"/>
@@ -2780,23 +2784,23 @@
         <v>230</v>
       </c>
       <c r="CX5" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CY5" s="23" t="s">
         <v>230</v>
       </c>
       <c r="CZ5" s="23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DA5" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DB5" s="22" t="s">
         <v>230</v>
       </c>
       <c r="DC5" s="4"/>
       <c r="DD5" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DE5" s="4"/>
       <c r="DF5" s="22" t="s">
@@ -2806,7 +2810,7 @@
         <v>230</v>
       </c>
       <c r="DH5" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="DI5" s="3"/>
       <c r="DJ5" s="3"/>
@@ -2818,13 +2822,13 @@
       <c r="DN5" s="3"/>
       <c r="DO5" s="3"/>
       <c r="DP5" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DQ5" s="23" t="s">
         <v>230</v>
       </c>
       <c r="DR5" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="DS5" s="4"/>
       <c r="DT5" s="22" t="s">
@@ -2832,16 +2836,16 @@
       </c>
       <c r="DU5" s="3"/>
       <c r="DV5" s="23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DW5" s="22" t="s">
         <v>230</v>
       </c>
       <c r="DX5" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DY5" s="23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="DZ5" s="22" t="s">
         <v>231</v>
@@ -2849,18 +2853,18 @@
       <c r="EA5" s="3"/>
       <c r="EB5" s="4"/>
       <c r="EC5" s="23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="ED5" s="23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="EE5" s="23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
@@ -2872,21 +2876,21 @@
       <c r="I6" s="23"/>
       <c r="J6" s="25"/>
       <c r="K6" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="22"/>
       <c r="O6" s="23"/>
       <c r="P6" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="4"/>
       <c r="S6" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2899,7 +2903,7 @@
       <c r="AB6" s="23"/>
       <c r="AC6" s="25"/>
       <c r="AD6" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
@@ -2916,7 +2920,7 @@
       <c r="AQ6" s="3"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AT6" s="27"/>
       <c r="AU6" s="23"/>
@@ -2999,7 +3003,7 @@
       <c r="DT6" s="32"/>
       <c r="DU6" s="32"/>
       <c r="DV6" s="36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DW6" s="32"/>
       <c r="DX6" s="33"/>
@@ -3013,7 +3017,7 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>231</v>
@@ -3034,7 +3038,7 @@
       <c r="N7" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="40"/>
@@ -3162,7 +3166,7 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B8" s="43">
         <v>1.0</v>
@@ -3568,7 +3572,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="51">
     <mergeCell ref="AN1:AS1"/>
     <mergeCell ref="AH3:AJ3"/>
     <mergeCell ref="AK3:AM3"/>
@@ -3612,7 +3616,6 @@
     <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="AN6:AR6"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="N7:O7"/>
     <mergeCell ref="AU7:AV7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:G5"/>
